--- a/Docs/ProduktePreisliste.xlsx
+++ b/Docs/ProduktePreisliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Weichbrötchen Webshop</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Barbecue</t>
   </si>
   <si>
-    <t>Majonnaise</t>
-  </si>
-  <si>
     <t>Ketchup</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Vegiburger</t>
   </si>
   <si>
-    <t>Weichbrötchen, Rindfleischburger, Chedar, Gurke</t>
-  </si>
-  <si>
     <t>Gurke</t>
   </si>
   <si>
@@ -111,10 +105,25 @@
     <t>Country Fries</t>
   </si>
   <si>
-    <t>Potatoes</t>
-  </si>
-  <si>
     <t>Gemischter Salat</t>
+  </si>
+  <si>
+    <t>Mayonnaise</t>
+  </si>
+  <si>
+    <t>Cocktail</t>
+  </si>
+  <si>
+    <t>Curry</t>
+  </si>
+  <si>
+    <t>Weichbrötchen, Rindfleischburger, Cheddar, Gurke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension </t>
+  </si>
+  <si>
+    <t>Tomate</t>
   </si>
 </sst>
 </file>
@@ -453,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,10 +531,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -535,45 +544,45 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -581,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,7 +598,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -597,7 +606,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,15 +614,23 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -621,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -629,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -637,7 +654,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -645,7 +662,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,7 +670,15 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/ProduktePreisliste.xlsx
+++ b/Docs/ProduktePreisliste.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="11640" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Weichbrötchen Webshop</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Cheeseburger</t>
   </si>
   <si>
-    <t>Pouletburger</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>Käse</t>
   </si>
   <si>
-    <t>Rindfleischburger extra</t>
-  </si>
-  <si>
     <t>Weichbrötchen, Rindfleischburger, Gurke</t>
   </si>
   <si>
@@ -72,30 +66,6 @@
     <t>Senf</t>
   </si>
   <si>
-    <t>Vegiburger</t>
-  </si>
-  <si>
-    <t>Gurke</t>
-  </si>
-  <si>
-    <t>Vegi Classic</t>
-  </si>
-  <si>
-    <t>Weichbrötchen, Vegiburger</t>
-  </si>
-  <si>
-    <t>Poulet Classic</t>
-  </si>
-  <si>
-    <t>Weichbrötchen, panierter Pouletburger</t>
-  </si>
-  <si>
-    <t>Chili</t>
-  </si>
-  <si>
-    <t>Hot &amp; Spicy</t>
-  </si>
-  <si>
     <t>Beilagen</t>
   </si>
   <si>
@@ -108,29 +78,42 @@
     <t>Gemischter Salat</t>
   </si>
   <si>
-    <t>Mayonnaise</t>
-  </si>
-  <si>
-    <t>Cocktail</t>
-  </si>
-  <si>
-    <t>Curry</t>
-  </si>
-  <si>
     <t>Weichbrötchen, Rindfleischburger, Cheddar, Gurke</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension </t>
-  </si>
-  <si>
-    <t>Tomate</t>
+    <t>Chickenburger</t>
+  </si>
+  <si>
+    <t>inbegriffen</t>
+  </si>
+  <si>
+    <t>Weichbrötchen Special</t>
+  </si>
+  <si>
+    <t>Salat Saucen</t>
+  </si>
+  <si>
+    <t>French dressing</t>
+  </si>
+  <si>
+    <t>Italian dressing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;Fr.&quot;\ * #,##0.00_ ;_ &quot;Fr.&quot;\ * \-#,##0.00_ ;_ &quot;Fr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,14 +139,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,8 +487,11 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -512,174 +501,159 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
       <c r="B21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
